--- a/output/StructureDefinition-PhrBodyStructure.xlsx
+++ b/output/StructureDefinition-PhrBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:49:40-05:00</t>
+    <t>2022-04-22T18:25:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-PhrBodyStructure.xlsx
+++ b/output/StructureDefinition-PhrBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T18:25:14-05:00</t>
+    <t>2022-04-22T19:30:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-PhrBodyStructure.xlsx
+++ b/output/StructureDefinition-PhrBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T19:30:43-05:00</t>
+    <t>2022-04-22T20:13:41-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-PhrBodyStructure.xlsx
+++ b/output/StructureDefinition-PhrBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T20:13:41-05:00</t>
+    <t>2022-05-10T00:26:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-PhrBodyStructure.xlsx
+++ b/output/StructureDefinition-PhrBodyStructure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T00:26:50-05:00</t>
+    <t>2022-05-10T00:36:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-PhrBodyStructure.xlsx
+++ b/output/StructureDefinition-PhrBodyStructure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-12T13:44:16-05:00</t>
+    <t>2022-06-12T13:47:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
